--- a/실습참고.xlsx
+++ b/실습참고.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study_View\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB6B7A-0034-46AC-9EC9-DE49A1F84757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97CDE2F-FF47-4189-980F-D3C04A9AF967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="3" xr2:uid="{6E455B6C-8844-485B-AE6A-32CB8E2CF7DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="4" xr2:uid="{6E455B6C-8844-485B-AE6A-32CB8E2CF7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,33 +219,6 @@
   </si>
   <si>
     <t>식단표화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개</t>
-  </si>
-  <si>
-    <t>새</t>
-  </si>
-  <si>
-    <t>식물</t>
-  </si>
-  <si>
-    <t>C01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C03</t>
-  </si>
-  <si>
-    <t>C04</t>
-  </si>
-  <si>
-    <t>고양이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1826,6 +1799,504 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>203638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590664</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>46709</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="그룹 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB594D5-760F-42F2-B9F2-CD74F9BE3BE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="8294285"/>
+          <a:ext cx="14945399" cy="1333453"/>
+          <a:chOff x="0" y="8191500"/>
+          <a:chExt cx="14937285" cy="1314519"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="그림 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C70233-9B9F-491D-89ED-ACA1BB95137E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="8391525"/>
+            <a:ext cx="10593278" cy="609685"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="그림 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11A648B-8849-4940-9807-51E8537FA89E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="8191500"/>
+            <a:ext cx="14937285" cy="181000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="그림 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A7B8BE-6645-4A75-A029-595F4B478054}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1676400" y="9010650"/>
+            <a:ext cx="11126753" cy="495369"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590664</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>46709</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="그룹 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E41255-1716-43E0-BFD2-B6CE0DDF2FEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14945399" cy="9627738"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="14937285" cy="9506019"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="그룹 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF16E01-3245-4B4A-84AD-982F54E80F94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="14899179" cy="8430399"/>
+            <a:chOff x="0" y="0"/>
+            <a:chExt cx="14899179" cy="8430399"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="그림 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF70B24C-9D48-4D2F-BEEB-A8EBBA4AE3FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="14880127" cy="743054"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="그림 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDEF9998-9E45-41D4-9C9C-54DA40CD28C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="742950"/>
+              <a:ext cx="14899179" cy="2219635"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="그림 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FC9216-1500-45CA-A81C-32022D2FF4FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2886075"/>
+              <a:ext cx="14899179" cy="5544324"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="그룹 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6DFCA3-ABB7-44ED-87B7-1E9C2072E39E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="0" y="8191500"/>
+            <a:ext cx="14937285" cy="1314519"/>
+            <a:chOff x="0" y="8191500"/>
+            <a:chExt cx="14937285" cy="1314519"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="그림 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49C901E-8BC3-4DC4-B72C-BA498EC77687}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="8391525"/>
+              <a:ext cx="10593278" cy="609685"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="그림 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0F9CA7-7206-4629-AE5A-7970872DC733}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="8191500"/>
+              <a:ext cx="14937285" cy="181000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="그림 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06833B8-7A18-4E11-948B-14EAF6751642}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1676400" y="9010650"/>
+              <a:ext cx="11126753" cy="495369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533754</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>162035</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="그룹 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD2998A-C65B-4A3A-9EBB-0723A665E1BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="561975" y="0"/>
+          <a:ext cx="14326514" cy="800770"/>
+          <a:chOff x="561975" y="0"/>
+          <a:chExt cx="14373579" cy="790685"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="그림 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BFC6DC-8915-4C98-995E-C5F3339B1B15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="561975" y="266700"/>
+            <a:ext cx="2534004" cy="523948"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="그림 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E5096A-8B6F-4BDF-AF25-CF6C59389B20}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1704975" y="0"/>
+            <a:ext cx="11774543" cy="790685"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="그림 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987F6073-1591-42F1-BC5B-385489BA5CD7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12401550" y="266700"/>
+            <a:ext cx="2534004" cy="523948"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2125,7 +2596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E6390B-6190-4B5F-BAD0-12C116D70FB4}">
   <dimension ref="B3:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G4" sqref="G4:G6"/>
     </sheetView>
   </sheetViews>
@@ -2542,7 +3013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DAE397-F8E8-4A15-ADD2-773D36368850}">
   <dimension ref="B3:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2554,31 +3025,31 @@
   <sheetData>
     <row r="3" spans="2:3" s="16" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C3" s="25"/>
     </row>
     <row r="4" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -2587,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2598,26 +3069,26 @@
     </row>
     <row r="10" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2637,52 +3108,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DC0F0D-D4E0-4C4F-A7BE-4763679A661C}">
-  <dimension ref="C3:D6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/실습참고.xlsx
+++ b/실습참고.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study_View\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97CDE2F-FF47-4189-980F-D3C04A9AF967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6966A1-2B15-47B8-B776-B8BA1432650C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="4" xr2:uid="{6E455B6C-8844-485B-AE6A-32CB8E2CF7DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="5" xr2:uid="{6E455B6C-8844-485B-AE6A-32CB8E2CF7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -326,15 +328,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -520,13 +528,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,6 +597,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,6 +638,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2624,7 +2667,7 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2638,12 +2681,12 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="G5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2652,7 +2695,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="22"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2662,7 +2705,7 @@
     </row>
     <row r="7" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="24" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2673,7 +2716,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="22"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2685,19 +2728,19 @@
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2753,7 +2796,7 @@
       <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -2767,11 +2810,11 @@
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
@@ -2863,14 +2906,14 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
@@ -2902,7 +2945,7 @@
       <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="27" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2916,11 +2959,11 @@
       <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
@@ -3024,10 +3067,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" s="16" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -3092,8 +3135,8 @@
       </c>
     </row>
     <row r="13" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3110,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DC0F0D-D4E0-4C4F-A7BE-4763679A661C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3121,4 +3164,1231 @@
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786C8EE2-D47A-4D21-A503-55912C1CA50E}">
+  <dimension ref="E1:AI76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="3.75" customWidth="1"/>
+    <col min="8" max="8" width="3.75" customWidth="1"/>
+    <col min="11" max="11" width="3.75" customWidth="1"/>
+    <col min="14" max="14" width="3.75" customWidth="1"/>
+    <col min="17" max="17" width="3.75" customWidth="1"/>
+    <col min="20" max="20" width="2.75" customWidth="1"/>
+    <col min="23" max="23" width="3.25" customWidth="1"/>
+    <col min="26" max="26" width="2.75" customWidth="1"/>
+    <col min="29" max="29" width="3.25" customWidth="1"/>
+    <col min="32" max="32" width="3.25" customWidth="1"/>
+    <col min="35" max="35" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="14:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="14:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" spans="14:35" x14ac:dyDescent="0.3">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="19"/>
+    </row>
+    <row r="4" spans="14:35" x14ac:dyDescent="0.3">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="19"/>
+    </row>
+    <row r="5" spans="14:35" x14ac:dyDescent="0.3">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="19"/>
+    </row>
+    <row r="6" spans="14:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="19"/>
+    </row>
+    <row r="7" spans="14:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="19"/>
+    </row>
+    <row r="8" spans="14:35" x14ac:dyDescent="0.3">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="19"/>
+    </row>
+    <row r="9" spans="14:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="19"/>
+    </row>
+    <row r="10" spans="14:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="14:35" x14ac:dyDescent="0.3">
+      <c r="N11" s="18"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="19"/>
+    </row>
+    <row r="12" spans="14:35" x14ac:dyDescent="0.3">
+      <c r="N12" s="18"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="19"/>
+    </row>
+    <row r="13" spans="14:35" x14ac:dyDescent="0.3">
+      <c r="N13" s="18"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="19"/>
+    </row>
+    <row r="14" spans="14:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N14" s="18"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="19"/>
+    </row>
+    <row r="15" spans="14:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="18"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="19"/>
+    </row>
+    <row r="16" spans="14:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="K17" s="17"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="19"/>
+    </row>
+    <row r="18" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="K18" s="17"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="19"/>
+    </row>
+    <row r="19" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="K19" s="17"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="19"/>
+    </row>
+    <row r="20" spans="5:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="17"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="19"/>
+    </row>
+    <row r="21" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="5:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="H23" s="17"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="19"/>
+    </row>
+    <row r="24" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="H24" s="17"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="19"/>
+    </row>
+    <row r="25" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="H25" s="17"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="19"/>
+    </row>
+    <row r="26" spans="5:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="17"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="19"/>
+    </row>
+    <row r="27" spans="5:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E28" s="17"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="19"/>
+    </row>
+    <row r="29" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E29" s="17"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="19"/>
+    </row>
+    <row r="30" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E30" s="17"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="19"/>
+    </row>
+    <row r="31" spans="5:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="17"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="19"/>
+    </row>
+    <row r="32" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+    </row>
+    <row r="37" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+    </row>
+    <row r="38" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+    </row>
+    <row r="39" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+    </row>
+    <row r="43" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+    </row>
+    <row r="51" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="S51">
+        <v>1800</v>
+      </c>
+      <c r="U51">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="17:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q53" s="17"/>
+      <c r="R53" s="4">
+        <v>1</v>
+      </c>
+      <c r="S53" s="6"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="4">
+        <v>2</v>
+      </c>
+      <c r="V53" s="6"/>
+    </row>
+    <row r="54" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q54" s="17"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="8"/>
+    </row>
+    <row r="55" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q55" s="17"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="8"/>
+    </row>
+    <row r="56" spans="17:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q56" s="17"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="11"/>
+    </row>
+    <row r="57" spans="17:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="T58" s="17"/>
+      <c r="U58" s="4">
+        <v>2</v>
+      </c>
+      <c r="V58" s="6"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y58" s="6"/>
+    </row>
+    <row r="59" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="T59" s="17"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="8"/>
+    </row>
+    <row r="60" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="T60" s="17"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="8"/>
+    </row>
+    <row r="61" spans="17:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T61" s="17"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="18"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="11"/>
+    </row>
+    <row r="62" spans="17:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="W63" s="17"/>
+      <c r="X63" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="18"/>
+      <c r="AA63" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB63" s="6"/>
+    </row>
+    <row r="64" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="W64" s="17"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="18"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="8"/>
+    </row>
+    <row r="65" spans="23:34" x14ac:dyDescent="0.3">
+      <c r="W65" s="17"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="18"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="8"/>
+    </row>
+    <row r="66" spans="23:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W66" s="17"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="18"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="11"/>
+    </row>
+    <row r="67" spans="23:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="23:34" x14ac:dyDescent="0.3">
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="18"/>
+      <c r="AD68" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE68" s="6"/>
+    </row>
+    <row r="69" spans="23:34" x14ac:dyDescent="0.3">
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="18"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="8"/>
+    </row>
+    <row r="70" spans="23:34" x14ac:dyDescent="0.3">
+      <c r="Z70" s="17"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="18"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="8"/>
+    </row>
+    <row r="71" spans="23:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="18"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="11"/>
+    </row>
+    <row r="72" spans="23:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="23:34" x14ac:dyDescent="0.3">
+      <c r="AC73" s="17"/>
+      <c r="AD73" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="18"/>
+      <c r="AG73" s="4">
+        <v>6</v>
+      </c>
+      <c r="AH73" s="6"/>
+    </row>
+    <row r="74" spans="23:34" x14ac:dyDescent="0.3">
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="18"/>
+      <c r="AG74" s="7"/>
+      <c r="AH74" s="8"/>
+    </row>
+    <row r="75" spans="23:34" x14ac:dyDescent="0.3">
+      <c r="AC75" s="17"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="18"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="8"/>
+    </row>
+    <row r="76" spans="23:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC76" s="17"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="11"/>
+      <c r="AF76" s="18"/>
+      <c r="AG76" s="9"/>
+      <c r="AH76" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64895218-F190-4FB9-A3D2-37661418F6A2}">
+  <dimension ref="C2:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="21" max="21" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C4" s="17"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="19"/>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C5" s="17"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C6" s="17"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="3:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="17"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="19"/>
+    </row>
+    <row r="8" spans="3:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="3:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="3:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="F11" s="17"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="F12" s="17"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="F13" s="17"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="3:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="17"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="3:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="17" spans="9:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="9:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I19" s="17"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="20"/>
+    </row>
+    <row r="20" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I20" s="17"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="20"/>
+    </row>
+    <row r="21" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I21" s="17"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="20"/>
+    </row>
+    <row r="22" spans="9:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="17"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="20"/>
+    </row>
+    <row r="23" spans="9:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="9:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="9:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="4"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="L26" s="17"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="20"/>
+    </row>
+    <row r="27" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="L27" s="17"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="20"/>
+    </row>
+    <row r="28" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="L28" s="17"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="20"/>
+    </row>
+    <row r="29" spans="9:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="17"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="20"/>
+    </row>
+    <row r="30" spans="9:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L30" s="9"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>